--- a/CheckinManagementSystem/bin/Debug/Word/formBaoCao.xlsx
+++ b/CheckinManagementSystem/bin/Debug/Word/formBaoCao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\C#\check-in-out-software\CheckinManagementSystem\Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5AB75B-7950-467A-AC36-959A540AE2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95824FA2-547E-4F1C-AEF2-EFAEE729E271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -73,9 +73,6 @@
     </r>
   </si>
   <si>
-    <t>Số lần quá giờ</t>
-  </si>
-  <si>
     <t>BÁO CÁO CHECK IN - OUT</t>
   </si>
   <si>
@@ -109,6 +106,15 @@
   </si>
   <si>
     <t>Số lần không check</t>
+  </si>
+  <si>
+    <t>Số lần đi quá giờ</t>
+  </si>
+  <si>
+    <t>Số lần ghi chú</t>
+  </si>
+  <si>
+    <t>Mã nhân sự</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +247,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -253,8 +262,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,44 +543,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="37.049999999999997" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+    <row r="1" spans="1:24" ht="37.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -576,49 +590,55 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="9" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -626,23 +646,25 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -650,8 +672,10 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -665,40 +689,46 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -710,10 +740,12 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -725,10 +757,12 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -740,10 +774,12 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -755,10 +791,12 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -770,8 +808,10 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -785,8 +825,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -800,8 +842,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -815,8 +859,10 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -830,8 +876,10 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -845,8 +893,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -860,8 +910,10 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -875,8 +927,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -890,8 +944,10 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -905,8 +961,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -920,8 +978,10 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -935,8 +995,10 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -950,8 +1012,10 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -965,8 +1029,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -980,8 +1046,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -995,8 +1063,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1010,8 +1080,10 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1025,8 +1097,10 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1040,8 +1114,10 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1055,23 +1131,27 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
